--- a/MASTER FILE/2023 CASUAL AND JOBCON LIST.xlsx
+++ b/MASTER FILE/2023 CASUAL AND JOBCON LIST.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JOBCON" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="CASUAL LIST" sheetId="4" r:id="rId3"/>
+    <sheet name="JOBCON (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="CASUAL LIST" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CASUAL LIST'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CASUAL LIST'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JOBCON!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JOBCON (2)'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1521">
   <si>
     <t>CASUAL</t>
   </si>
@@ -4498,6 +4500,102 @@
   </si>
   <si>
     <t>1-TEMPALTE LEAVE CARD-CASUAL - Copy (12).xlsx</t>
+  </si>
+  <si>
+    <t>AYCARDO, CHRISTOPHER V.</t>
+  </si>
+  <si>
+    <t>BAYOT, KATHLEEN M.</t>
+  </si>
+  <si>
+    <t>ERMAC, ROSELITO</t>
+  </si>
+  <si>
+    <t>ESPIRITU, VINCENT</t>
+  </si>
+  <si>
+    <t>GALLENERO, EDIPO ELAPE JR.</t>
+  </si>
+  <si>
+    <t>HERNANDEZ, JAYMARK COLINS M.</t>
+  </si>
+  <si>
+    <t>ISLETA, VANJO</t>
+  </si>
+  <si>
+    <t>LEABAN, MICHAEL D.</t>
+  </si>
+  <si>
+    <t>MENDOZA, JOEL D.</t>
+  </si>
+  <si>
+    <t>NUESTRO, EIMIEL JAMES S.</t>
+  </si>
+  <si>
+    <t>OPO, ERIC B.</t>
+  </si>
+  <si>
+    <t>PARAGAS, MARK LAURENCE G.</t>
+  </si>
+  <si>
+    <t>RODIL, GILBERT P.</t>
+  </si>
+  <si>
+    <t>SERRANO, KRISTAN DIOR C.</t>
+  </si>
+  <si>
+    <t>KARINGAL, JAY A,</t>
+  </si>
+  <si>
+    <t>MENDOZA, STEPHANITOR M.</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (16).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (17).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (18).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy.xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD.xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (2).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (3).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (4).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (5).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (6).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (7).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (8).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (9).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (10).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (11).xlsx</t>
+  </si>
+  <si>
+    <t>1-TEMPALTE LEAVE CARD - Copy (12).xlsx</t>
   </si>
 </sst>
 </file>
@@ -4726,7 +4824,153 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -5013,17 +5257,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E303" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:E303"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E303" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A1:E303">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:C303">
-    <sortCondition sortBy="cellColor" ref="C1:C303" dxfId="13"/>
+    <sortCondition sortBy="cellColor" ref="C1:C303" dxfId="24"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="NO" dataDxfId="12"/>
-    <tableColumn id="2" name="CONTRACTUAL" dataDxfId="11"/>
-    <tableColumn id="3" name="REMARKS" dataDxfId="10"/>
-    <tableColumn id="4" name="FILE NAME" dataDxfId="9"/>
-    <tableColumn id="5" name="NEW NAME" dataDxfId="8">
+    <tableColumn id="1" name="NO" dataDxfId="23"/>
+    <tableColumn id="2" name="CONTRACTUAL" dataDxfId="22"/>
+    <tableColumn id="3" name="REMARKS" dataDxfId="21"/>
+    <tableColumn id="4" name="FILE NAME" dataDxfId="20"/>
+    <tableColumn id="5" name="NEW NAME" dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table1[[#This Row],[FILE NAME]], """", " """,UPPER(Table1[[#This Row],[CONTRACTUAL]]),".xlsx"""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5032,21 +5280,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:E353" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E303" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:E303">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:C303">
+    <sortCondition sortBy="cellColor" ref="C1:C303" dxfId="5"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" name="NO" dataDxfId="4"/>
+    <tableColumn id="2" name="CONTRACTUAL" dataDxfId="3"/>
+    <tableColumn id="3" name="REMARKS" dataDxfId="2"/>
+    <tableColumn id="4" name="FILE NAME" dataDxfId="1"/>
+    <tableColumn id="5" name="NEW NAME" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:E353" totalsRowShown="0" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:E353">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:C353">
-    <sortCondition sortBy="cellColor" ref="B1:B353" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="B1:B353" dxfId="15"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="NO" dataDxfId="3"/>
-    <tableColumn id="2" name="CASUAL" dataDxfId="2"/>
-    <tableColumn id="3" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="1" name="NO" dataDxfId="14"/>
+    <tableColumn id="2" name="CASUAL" dataDxfId="13"/>
+    <tableColumn id="3" name="REMARKS" dataDxfId="12"/>
     <tableColumn id="4" name="FILE NAME"/>
-    <tableColumn id="5" name="NEW NAME" dataDxfId="0">
+    <tableColumn id="5" name="NEW NAME" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(Table24[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table24[[#This Row],[FILE NAME]], """", " """,UPPER(Table24[[#This Row],[CASUAL]]),".xlsx"""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5353,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E303"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9831,7 +10102,7 @@
         <v>ren "TEMPLATE-JOBCON - Copy - Copy - Copy (2) - Copy (2).xlsx" "ZAFRA, FERDINIEL.xlsx"</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>5</v>
       </c>
@@ -9846,7 +10117,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>8</v>
       </c>
@@ -9861,7 +10132,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>16</v>
       </c>
@@ -9876,7 +10147,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>35</v>
       </c>
@@ -9891,7 +10162,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>86</v>
       </c>
@@ -9906,7 +10177,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>104</v>
       </c>
@@ -9921,7 +10192,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>105</v>
       </c>
@@ -9936,7 +10207,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>107</v>
       </c>
@@ -9951,7 +10222,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>110</v>
       </c>
@@ -9966,7 +10237,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>111</v>
       </c>
@@ -9981,7 +10252,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>118</v>
       </c>
@@ -9996,7 +10267,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>126</v>
       </c>
@@ -10011,7 +10282,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>166</v>
       </c>
@@ -10026,7 +10297,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>190</v>
       </c>
@@ -10041,7 +10312,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>191</v>
       </c>
@@ -10056,7 +10327,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>209</v>
       </c>
@@ -10071,7 +10342,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>210</v>
       </c>
@@ -10086,7 +10357,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>216</v>
       </c>
@@ -10101,7 +10372,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>238</v>
       </c>
@@ -10116,7 +10387,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>252</v>
       </c>
@@ -10131,7 +10402,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>273</v>
       </c>
@@ -10146,7 +10417,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>289</v>
       </c>
@@ -10161,7 +10432,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>291</v>
       </c>
@@ -10176,7 +10447,7 @@
         <v>----</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10">
         <v>294</v>
       </c>
@@ -10193,7 +10464,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C303">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$C2="P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10206,6 +10477,3552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E303"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="90.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (16).xlsx" "AYCARDO, CHRISTOPHER V..xlsx"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (17).xlsx" "BAYOT, KATHLEEN M..xlsx"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (18).xlsx" "ERMAC, ROSELITO.xlsx"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy.xlsx" "ESPIRITU, VINCENT.xlsx"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD.xlsx" "GALLENERO, EDIPO ELAPE JR..xlsx"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (2).xlsx" "HERNANDEZ, JAYMARK COLINS M..xlsx"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (3).xlsx" "ISLETA, VANJO.xlsx"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (4).xlsx" "LEABAN, MICHAEL D..xlsx"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (5).xlsx" "MENDOZA, JOEL D..xlsx"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (6).xlsx" "NUESTRO, EIMIEL JAMES S..xlsx"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (7).xlsx" "OPO, ERIC B..xlsx"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (8).xlsx" "PARAGAS, MARK LAURENCE G..xlsx"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (9).xlsx" "RODIL, GILBERT P..xlsx"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (10).xlsx" "SERRANO, KRISTAN DIOR C..xlsx"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (11).xlsx" "KARINGAL, JAY A,.xlsx"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>ren "1-TEMPALTE LEAVE CARD - Copy (12).xlsx" "MENDOZA, STEPHANITOR M..xlsx"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="14"/>
+      <c r="E18" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="14"/>
+      <c r="E19" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="14"/>
+      <c r="E20" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="14"/>
+      <c r="E21" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="14"/>
+      <c r="E22" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="14"/>
+      <c r="E23" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="14"/>
+      <c r="E24" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="14"/>
+      <c r="E25" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="14"/>
+      <c r="E26" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="14"/>
+      <c r="E27" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="14"/>
+      <c r="E28" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="14"/>
+      <c r="E29" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="14"/>
+      <c r="E30" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="14"/>
+      <c r="E31" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="14"/>
+      <c r="E32" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="14"/>
+      <c r="E33" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="14"/>
+      <c r="E34" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="14"/>
+      <c r="E35" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="14"/>
+      <c r="E36" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="14"/>
+      <c r="E37" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="14"/>
+      <c r="E38" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="14"/>
+      <c r="E39" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="14"/>
+      <c r="E40" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="14"/>
+      <c r="E41" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="14"/>
+      <c r="E42" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="14"/>
+      <c r="E43" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>47</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="14"/>
+      <c r="E44" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="14"/>
+      <c r="E45" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="14"/>
+      <c r="E46" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>50</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="14"/>
+      <c r="E47" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="14"/>
+      <c r="E48" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="14"/>
+      <c r="E49" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="14"/>
+      <c r="E50" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>54</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="14"/>
+      <c r="E51" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>55</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="14"/>
+      <c r="E52" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="14"/>
+      <c r="E53" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>57</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="14"/>
+      <c r="E54" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>58</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="14"/>
+      <c r="E55" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="14"/>
+      <c r="E56" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>60</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="14"/>
+      <c r="E57" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="14"/>
+      <c r="E58" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>62</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="14"/>
+      <c r="E59" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>63</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="14"/>
+      <c r="E60" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="14"/>
+      <c r="E61" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>65</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="14"/>
+      <c r="E62" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>66</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="14"/>
+      <c r="E63" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>67</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="14"/>
+      <c r="E64" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>68</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="14"/>
+      <c r="E65" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>69</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="14"/>
+      <c r="E66" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>70</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="14"/>
+      <c r="E67" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>71</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="14"/>
+      <c r="E68" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>72</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="14"/>
+      <c r="E69" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>73</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="14"/>
+      <c r="E70" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>74</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="14"/>
+      <c r="E71" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>75</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="14"/>
+      <c r="E72" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>76</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="14"/>
+      <c r="E73" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>77</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="14"/>
+      <c r="E74" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>78</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="14"/>
+      <c r="E75" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>79</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="14"/>
+      <c r="E76" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>80</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="14"/>
+      <c r="E77" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>81</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="14"/>
+      <c r="E78" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>82</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="14"/>
+      <c r="E79" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>83</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="14"/>
+      <c r="E80" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>84</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="14"/>
+      <c r="E81" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>85</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="14"/>
+      <c r="E82" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>87</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="14"/>
+      <c r="E83" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>88</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="14"/>
+      <c r="E84" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>89</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="14"/>
+      <c r="E85" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>90</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="14"/>
+      <c r="E86" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>91</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="14"/>
+      <c r="E87" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>92</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="14"/>
+      <c r="E88" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>93</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="14"/>
+      <c r="E89" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>94</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="14"/>
+      <c r="E90" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="14"/>
+      <c r="E91" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>96</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="14"/>
+      <c r="E92" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>97</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="14"/>
+      <c r="E93" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>98</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="14"/>
+      <c r="E94" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>99</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="14"/>
+      <c r="E95" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>100</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="14"/>
+      <c r="E96" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>101</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="14"/>
+      <c r="E97" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>102</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="14"/>
+      <c r="E98" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>103</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="14"/>
+      <c r="E99" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>106</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="14"/>
+      <c r="E100" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>108</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="14"/>
+      <c r="E101" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>109</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="14"/>
+      <c r="E102" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>112</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="14"/>
+      <c r="E103" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="14"/>
+      <c r="E104" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>114</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="14"/>
+      <c r="E105" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>115</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="14"/>
+      <c r="E106" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>116</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="14"/>
+      <c r="E107" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>117</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="14"/>
+      <c r="E108" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>119</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="14"/>
+      <c r="E109" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>120</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="14"/>
+      <c r="E110" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>121</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="14"/>
+      <c r="E111" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>122</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="14"/>
+      <c r="E112" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="14"/>
+      <c r="E113" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>124</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="14"/>
+      <c r="E114" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>125</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="14"/>
+      <c r="E115" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>127</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="14"/>
+      <c r="E116" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>128</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="14"/>
+      <c r="E117" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>129</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="14"/>
+      <c r="E118" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>130</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="14"/>
+      <c r="E119" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>131</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="14"/>
+      <c r="E120" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>132</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="14"/>
+      <c r="E121" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>133</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="14"/>
+      <c r="E122" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>134</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="14"/>
+      <c r="E123" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>135</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="14"/>
+      <c r="E124" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>136</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="14"/>
+      <c r="E125" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>137</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="14"/>
+      <c r="E126" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>138</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="14"/>
+      <c r="E127" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>139</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="14"/>
+      <c r="E128" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>140</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="14"/>
+      <c r="E129" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>141</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="14"/>
+      <c r="E130" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>142</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="14"/>
+      <c r="E131" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>143</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="14"/>
+      <c r="E132" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>144</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="14"/>
+      <c r="E133" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>145</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="14"/>
+      <c r="E134" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>146</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="14"/>
+      <c r="E135" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>147</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="14"/>
+      <c r="E136" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>148</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="14"/>
+      <c r="E137" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>149</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="14"/>
+      <c r="E138" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>150</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="14"/>
+      <c r="E139" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>151</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="14"/>
+      <c r="E140" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>152</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="14"/>
+      <c r="E141" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>153</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="14"/>
+      <c r="E142" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>154</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="14"/>
+      <c r="E143" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>155</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="14"/>
+      <c r="E144" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>156</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="14"/>
+      <c r="E145" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>157</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="14"/>
+      <c r="E146" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>158</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="14"/>
+      <c r="E147" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>159</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="14"/>
+      <c r="E148" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>160</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="14"/>
+      <c r="E149" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>161</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="14"/>
+      <c r="E150" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
+        <v>162</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="14"/>
+      <c r="E151" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="7">
+        <v>163</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="14"/>
+      <c r="E152" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>164</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="14"/>
+      <c r="E153" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>165</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="14"/>
+      <c r="E154" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>167</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="14"/>
+      <c r="E155" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>168</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="14"/>
+      <c r="E156" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
+        <v>169</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="14"/>
+      <c r="E157" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="7">
+        <v>170</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="14"/>
+      <c r="E158" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>171</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="14"/>
+      <c r="E159" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>172</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="14"/>
+      <c r="E160" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>173</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="14"/>
+      <c r="E161" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>174</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="14"/>
+      <c r="E162" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>175</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="14"/>
+      <c r="E163" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>176</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="14"/>
+      <c r="E164" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>177</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="14"/>
+      <c r="E165" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>178</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="14"/>
+      <c r="E166" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>179</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="14"/>
+      <c r="E167" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>180</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="14"/>
+      <c r="E168" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>181</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="14"/>
+      <c r="E169" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>182</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="14"/>
+      <c r="E170" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>183</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="14"/>
+      <c r="E171" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="7">
+        <v>184</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="14"/>
+      <c r="E172" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>185</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="14"/>
+      <c r="E173" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>186</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="14"/>
+      <c r="E174" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
+        <v>187</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="14"/>
+      <c r="E175" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>188</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="14"/>
+      <c r="E176" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="7">
+        <v>189</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="14"/>
+      <c r="E177" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>192</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="14"/>
+      <c r="E178" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
+        <v>193</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="14"/>
+      <c r="E179" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>194</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="14"/>
+      <c r="E180" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="7">
+        <v>195</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="14"/>
+      <c r="E181" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="7">
+        <v>196</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="14"/>
+      <c r="E182" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
+        <v>197</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="14"/>
+      <c r="E183" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>198</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="14"/>
+      <c r="E184" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <v>199</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="14"/>
+      <c r="E185" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>200</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="14"/>
+      <c r="E186" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <v>201</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="14"/>
+      <c r="E187" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>202</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="14"/>
+      <c r="E188" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>203</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="14"/>
+      <c r="E189" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="7">
+        <v>204</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="14"/>
+      <c r="E190" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
+        <v>205</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="14"/>
+      <c r="E191" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>206</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="14"/>
+      <c r="E192" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>207</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="14"/>
+      <c r="E193" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>208</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="14"/>
+      <c r="E194" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>211</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="14"/>
+      <c r="E195" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>212</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="14"/>
+      <c r="E196" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>213</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="14"/>
+      <c r="E197" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>214</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="14"/>
+      <c r="E198" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>215</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="14"/>
+      <c r="E199" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>217</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="14"/>
+      <c r="E200" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>218</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="14"/>
+      <c r="E201" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
+        <v>219</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="14"/>
+      <c r="E202" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
+        <v>220</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="14"/>
+      <c r="E203" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="7">
+        <v>221</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="14"/>
+      <c r="E204" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="7">
+        <v>222</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="14"/>
+      <c r="E205" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="7">
+        <v>223</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="14"/>
+      <c r="E206" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
+        <v>224</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" s="14"/>
+      <c r="E207" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="7">
+        <v>225</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="14"/>
+      <c r="E208" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
+        <v>226</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="14"/>
+      <c r="E209" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="7">
+        <v>227</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="14"/>
+      <c r="E210" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
+        <v>228</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="14"/>
+      <c r="E211" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="7">
+        <v>229</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="14"/>
+      <c r="E212" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
+        <v>230</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="14"/>
+      <c r="E213" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="7">
+        <v>231</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="14"/>
+      <c r="E214" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
+        <v>232</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="14"/>
+      <c r="E215" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="7">
+        <v>233</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="14"/>
+      <c r="E216" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
+        <v>234</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="14"/>
+      <c r="E217" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="7">
+        <v>235</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="14"/>
+      <c r="E218" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
+        <v>236</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="14"/>
+      <c r="E219" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="7">
+        <v>237</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="14"/>
+      <c r="E220" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="7">
+        <v>239</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="14"/>
+      <c r="E221" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="7">
+        <v>240</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="14"/>
+      <c r="E222" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="7">
+        <v>241</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="14"/>
+      <c r="E223" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="7">
+        <v>242</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="14"/>
+      <c r="E224" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="7">
+        <v>243</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="14"/>
+      <c r="E225" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="7">
+        <v>244</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="14"/>
+      <c r="E226" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
+        <v>245</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="14"/>
+      <c r="E227" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="7">
+        <v>246</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="14"/>
+      <c r="E228" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="7">
+        <v>247</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="14"/>
+      <c r="E229" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
+        <v>248</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="14"/>
+      <c r="E230" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="7">
+        <v>249</v>
+      </c>
+      <c r="B231" s="2"/>
+      <c r="C231" s="14"/>
+      <c r="E231" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="7">
+        <v>250</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="14"/>
+      <c r="E232" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
+        <v>251</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="14"/>
+      <c r="E233" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="7">
+        <v>253</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="14"/>
+      <c r="E234" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
+        <v>254</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" s="14"/>
+      <c r="E235" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="7">
+        <v>255</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="14"/>
+      <c r="E236" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
+        <v>256</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="14"/>
+      <c r="E237" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="7">
+        <v>257</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="14"/>
+      <c r="E238" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="7">
+        <v>258</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="14"/>
+      <c r="E239" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="7">
+        <v>259</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="14"/>
+      <c r="E240" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="7">
+        <v>260</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="14"/>
+      <c r="E241" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="7">
+        <v>261</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="14"/>
+      <c r="E242" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="7">
+        <v>262</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="14"/>
+      <c r="E243" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="7">
+        <v>263</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="14"/>
+      <c r="E244" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="7">
+        <v>264</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="14"/>
+      <c r="E245" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="7">
+        <v>265</v>
+      </c>
+      <c r="B246" s="2"/>
+      <c r="C246" s="14"/>
+      <c r="E246" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="7">
+        <v>266</v>
+      </c>
+      <c r="B247" s="2"/>
+      <c r="C247" s="14"/>
+      <c r="E247" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="7">
+        <v>267</v>
+      </c>
+      <c r="B248" s="2"/>
+      <c r="C248" s="14"/>
+      <c r="E248" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="7">
+        <v>268</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="14"/>
+      <c r="E249" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="7">
+        <v>269</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="14"/>
+      <c r="E250" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="7">
+        <v>270</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="14"/>
+      <c r="E251" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="7">
+        <v>271</v>
+      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="14"/>
+      <c r="E252" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="7">
+        <v>272</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="14"/>
+      <c r="E253" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="7">
+        <v>274</v>
+      </c>
+      <c r="B254" s="2"/>
+      <c r="C254" s="14"/>
+      <c r="E254" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="7">
+        <v>275</v>
+      </c>
+      <c r="B255" s="2"/>
+      <c r="C255" s="14"/>
+      <c r="E255" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="7">
+        <v>276</v>
+      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="14"/>
+      <c r="E256" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="7">
+        <v>277</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="14"/>
+      <c r="E257" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
+        <v>278</v>
+      </c>
+      <c r="B258" s="2"/>
+      <c r="C258" s="14"/>
+      <c r="E258" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
+        <v>279</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="14"/>
+      <c r="E259" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="7">
+        <v>280</v>
+      </c>
+      <c r="B260" s="2"/>
+      <c r="C260" s="14"/>
+      <c r="E260" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="7">
+        <v>281</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="14"/>
+      <c r="E261" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="7">
+        <v>282</v>
+      </c>
+      <c r="B262" s="2"/>
+      <c r="C262" s="14"/>
+      <c r="E262" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="7">
+        <v>283</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="14"/>
+      <c r="E263" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="7">
+        <v>284</v>
+      </c>
+      <c r="B264" s="2"/>
+      <c r="C264" s="14"/>
+      <c r="E264" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="7">
+        <v>285</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="14"/>
+      <c r="E265" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="7">
+        <v>286</v>
+      </c>
+      <c r="B266" s="2"/>
+      <c r="C266" s="14"/>
+      <c r="E266" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="7">
+        <v>287</v>
+      </c>
+      <c r="B267" s="2"/>
+      <c r="C267" s="14"/>
+      <c r="E267" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="7">
+        <v>288</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="14"/>
+      <c r="E268" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="7">
+        <v>290</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="14"/>
+      <c r="E269" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="7">
+        <v>292</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" s="14"/>
+      <c r="E270" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="7">
+        <v>293</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" s="14"/>
+      <c r="E271" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="7">
+        <v>295</v>
+      </c>
+      <c r="B272" s="2"/>
+      <c r="C272" s="14"/>
+      <c r="E272" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="7">
+        <v>296</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="14"/>
+      <c r="E273" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="7">
+        <v>297</v>
+      </c>
+      <c r="B274" s="2"/>
+      <c r="C274" s="14"/>
+      <c r="E274" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="7">
+        <v>298</v>
+      </c>
+      <c r="B275" s="2"/>
+      <c r="C275" s="14"/>
+      <c r="E275" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="7">
+        <v>299</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" s="14"/>
+      <c r="E276" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="7">
+        <v>300</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="14"/>
+      <c r="E277" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="7">
+        <v>301</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" s="14"/>
+      <c r="E278" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="7">
+        <v>302</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="14"/>
+      <c r="E279" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7">
+        <v>5</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E280" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7">
+        <v>8</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E281" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7">
+        <v>16</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E282" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7">
+        <v>35</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C283" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E283" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="7">
+        <v>86</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E284" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="7">
+        <v>104</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E285" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="7">
+        <v>105</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E286" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="7">
+        <v>107</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E287" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="7">
+        <v>110</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E288" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="7">
+        <v>111</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C289" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E289" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="7">
+        <v>118</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E290" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="7">
+        <v>126</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E291" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="7">
+        <v>166</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E292" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="7">
+        <v>190</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C293" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E293" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="7">
+        <v>191</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C294" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E294" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="7">
+        <v>209</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C295" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E295" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="7">
+        <v>210</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E296" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="7">
+        <v>216</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C297" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E297" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="7">
+        <v>238</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E298" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="7">
+        <v>252</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E299" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="7">
+        <v>273</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E300" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="7">
+        <v>289</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E301" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="7">
+        <v>291</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E302" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="10">
+        <v>294</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C303" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="E303" s="6" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[FILE NAME]]),"----",CONCATENATE("ren """,Table13[[#This Row],[FILE NAME]], """", " """,UPPER(Table13[[#This Row],[CONTRACTUAL]]),".xlsx"""))</f>
+        <v>----</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:C303">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$C2="P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C279"/>
   <sheetViews>
@@ -13563,12 +17380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18950,7 +22767,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C353">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$C2="P"</formula>
     </cfRule>
   </conditionalFormatting>
